--- a/Descargas/R15_Juzgado De Garantia De Chillan_Ingresos Causas Por Materia_2020-Septiembre.xlsx
+++ b/Descargas/R15_Juzgado De Garantia De Chillan_Ingresos Causas Por Materia_2020-Septiembre.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B30" s="65">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="31">
@@ -791,7 +791,7 @@
         </is>
       </c>
       <c r="B59" s="65">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="60">
